--- a/WCIRB/MackWCIRB.xlsx
+++ b/WCIRB/MackWCIRB.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\IBNR\WCIRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647356B-C61F-4864-9127-1EC5B1FA37C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F647356B-C61F-4864-9127-1EC5B1FA37C0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" windowHeight="8520" windowWidth="23040" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="IndPaid" sheetId="5" r:id="rId1"/>
-    <sheet name="IndIncd" sheetId="7" r:id="rId2"/>
-    <sheet name="MedPaid" sheetId="9" r:id="rId3"/>
-    <sheet name="MedIncd" sheetId="11" r:id="rId4"/>
-    <sheet name="CombPaid" sheetId="15" r:id="rId5"/>
-    <sheet name="CombIncd" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="16" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="17" r:id="rId8"/>
+    <sheet name="IndPaid" r:id="rId1" sheetId="5"/>
+    <sheet name="IndIncd" r:id="rId2" sheetId="7"/>
+    <sheet name="MedPaid" r:id="rId3" sheetId="9"/>
+    <sheet name="MedIncd" r:id="rId4" sheetId="11"/>
+    <sheet name="CombPaid" r:id="rId5" sheetId="15"/>
+    <sheet name="CombIncd" r:id="rId6" sheetId="13"/>
+    <sheet name="Sheet7" r:id="rId7" sheetId="16"/>
+    <sheet name="Sheet8" r:id="rId8" sheetId="17"/>
+    <sheet name="Sheet9" r:id="rId12" sheetId="18"/>
+    <sheet name="Sheet10" r:id="rId13" sheetId="19"/>
+    <sheet name="Sheet11" r:id="rId14" sheetId="20"/>
+    <sheet name="Sheet12" r:id="rId15" sheetId="21"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="47">
   <si>
     <t/>
   </si>
@@ -148,6 +152,27 @@
   <si>
     <t>sum</t>
   </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Latest:</t>
+  </si>
+  <si>
+    <t>Dev:</t>
+  </si>
+  <si>
+    <t>Ultimate:</t>
+  </si>
+  <si>
+    <t>IBNR:</t>
+  </si>
+  <si>
+    <t>Mack S.E.:</t>
+  </si>
+  <si>
+    <t>CV(IBNR):</t>
+  </si>
 </sst>
 </file>
 
@@ -198,151 +223,2407 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="317">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1030">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="43" xfId="6">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="6">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="6"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="6">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="1" numFmtId="43" xfId="6">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="172" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="7">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
@@ -358,12 +2639,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -1052,124 +3327,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Comma" xfId="6" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle builtinId="3" name="Comma" xfId="6"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="7"/>
     <cellStyle name="XLConnect.Boolean" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="XLConnect.DateTime" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="XLConnect.Header" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1177,7 +3341,7 @@
     <cellStyle name="XLConnect.String" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1194,10 +3358,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1232,7 +3396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1284,7 +3448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1395,21 +3559,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1426,7 +3590,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1478,18 +3642,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -1497,14 +3661,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="14.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="38" width="8.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2287,21 +4451,1565 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F
-&amp;A&amp;C&amp;P of &amp;N&amp;Rprinted on: &amp;D</oddFooter>
+    <oddFooter><![CDATA[&L&F
+&A&C&P of &N&Rprinted on: &D]]></oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="320" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="321" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="322" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="356" t="n">
+        <v>2557.0</v>
+      </c>
+      <c r="C2" s="388" t="n">
+        <v>0.9756097560975611</v>
+      </c>
+      <c r="D2" s="420" t="n">
+        <v>2620.9249999999997</v>
+      </c>
+      <c r="E2" s="452" t="n">
+        <v>63.92499999999973</v>
+      </c>
+      <c r="F2" s="484" t="n">
+        <v>35.35155465975089</v>
+      </c>
+      <c r="G2" s="516" t="n">
+        <v>0.5530161073093631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="325" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="357" t="n">
+        <v>2885.0</v>
+      </c>
+      <c r="C3" s="389" t="n">
+        <v>0.9737020326793022</v>
+      </c>
+      <c r="D3" s="421" t="n">
+        <v>2962.9187402037614</v>
+      </c>
+      <c r="E3" s="453" t="n">
+        <v>77.91874020376144</v>
+      </c>
+      <c r="F3" s="485" t="n">
+        <v>37.79828954003086</v>
+      </c>
+      <c r="G3" s="517" t="n">
+        <v>0.48509882784534786</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="358" t="n">
+        <v>3108.0</v>
+      </c>
+      <c r="C4" s="390" t="n">
+        <v>0.9737020326793026</v>
+      </c>
+      <c r="D4" s="422" t="n">
+        <v>3191.9415752351083</v>
+      </c>
+      <c r="E4" s="454" t="n">
+        <v>83.9415752351083</v>
+      </c>
+      <c r="F4" s="486" t="n">
+        <v>39.733291931646825</v>
+      </c>
+      <c r="G4" s="518" t="n">
+        <v>0.4733446068930632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="359" t="n">
+        <v>3633.0</v>
+      </c>
+      <c r="C5" s="391" t="n">
+        <v>0.9741578323435177</v>
+      </c>
+      <c r="D5" s="423" t="n">
+        <v>3729.375137558709</v>
+      </c>
+      <c r="E5" s="455" t="n">
+        <v>96.37513755870896</v>
+      </c>
+      <c r="F5" s="487" t="n">
+        <v>43.23561095576998</v>
+      </c>
+      <c r="G5" s="519" t="n">
+        <v>0.4486178909932252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="360" t="n">
+        <v>4037.0</v>
+      </c>
+      <c r="C6" s="392" t="n">
+        <v>0.9735180964496786</v>
+      </c>
+      <c r="D6" s="424" t="n">
+        <v>4146.815569964779</v>
+      </c>
+      <c r="E6" s="456" t="n">
+        <v>109.81556996477866</v>
+      </c>
+      <c r="F6" s="488" t="n">
+        <v>45.811500850044595</v>
+      </c>
+      <c r="G6" s="520" t="n">
+        <v>0.4171676280944296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="329" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="361" t="n">
+        <v>4738.0</v>
+      </c>
+      <c r="C7" s="393" t="n">
+        <v>0.9727374083210102</v>
+      </c>
+      <c r="D7" s="425" t="n">
+        <v>4870.790368983555</v>
+      </c>
+      <c r="E7" s="457" t="n">
+        <v>132.7903689835548</v>
+      </c>
+      <c r="F7" s="489" t="n">
+        <v>50.15697508028235</v>
+      </c>
+      <c r="G7" s="521" t="n">
+        <v>0.37771545831380254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="362" t="n">
+        <v>3800.0</v>
+      </c>
+      <c r="C8" s="394" t="n">
+        <v>0.9718081597460001</v>
+      </c>
+      <c r="D8" s="426" t="n">
+        <v>3910.2367703860396</v>
+      </c>
+      <c r="E8" s="458" t="n">
+        <v>110.23677038603955</v>
+      </c>
+      <c r="F8" s="490" t="n">
+        <v>44.91444807778985</v>
+      </c>
+      <c r="G8" s="522" t="n">
+        <v>0.40743617506666213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="331" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="363" t="n">
+        <v>3078.0</v>
+      </c>
+      <c r="C9" s="395" t="n">
+        <v>0.9708251849930613</v>
+      </c>
+      <c r="D9" s="427" t="n">
+        <v>3170.49871344448</v>
+      </c>
+      <c r="E9" s="459" t="n">
+        <v>92.49871344448002</v>
+      </c>
+      <c r="F9" s="491" t="n">
+        <v>40.41531680963241</v>
+      </c>
+      <c r="G9" s="523" t="n">
+        <v>0.4369284209978841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="332" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="364" t="n">
+        <v>3193.0</v>
+      </c>
+      <c r="C10" s="396" t="n">
+        <v>0.9700210876451251</v>
+      </c>
+      <c r="D10" s="428" t="n">
+        <v>3291.6810166998503</v>
+      </c>
+      <c r="E10" s="460" t="n">
+        <v>98.68101669985026</v>
+      </c>
+      <c r="F10" s="492" t="n">
+        <v>41.78522532913289</v>
+      </c>
+      <c r="G10" s="524" t="n">
+        <v>0.42343732083980745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="333" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="365" t="n">
+        <v>3366.0</v>
+      </c>
+      <c r="C11" s="397" t="n">
+        <v>0.9038041919113748</v>
+      </c>
+      <c r="D11" s="429" t="n">
+        <v>3724.258008675028</v>
+      </c>
+      <c r="E11" s="461" t="n">
+        <v>358.2580086750281</v>
+      </c>
+      <c r="F11" s="493" t="n">
+        <v>1024.4062314779362</v>
+      </c>
+      <c r="G11" s="525" t="n">
+        <v>2.8594091595232523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="334" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="366" t="n">
+        <v>3797.0</v>
+      </c>
+      <c r="C12" s="398" t="n">
+        <v>0.9026250605455415</v>
+      </c>
+      <c r="D12" s="430" t="n">
+        <v>4206.619299607209</v>
+      </c>
+      <c r="E12" s="462" t="n">
+        <v>409.61929960720863</v>
+      </c>
+      <c r="F12" s="494" t="n">
+        <v>1096.0999185830262</v>
+      </c>
+      <c r="G12" s="526" t="n">
+        <v>2.675899108352796</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="335" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="367" t="n">
+        <v>4483.0</v>
+      </c>
+      <c r="C13" s="399" t="n">
+        <v>0.9014643189460602</v>
+      </c>
+      <c r="D13" s="431" t="n">
+        <v>4973.019903040937</v>
+      </c>
+      <c r="E13" s="463" t="n">
+        <v>490.0199030409367</v>
+      </c>
+      <c r="F13" s="495" t="n">
+        <v>1204.3653056143405</v>
+      </c>
+      <c r="G13" s="527" t="n">
+        <v>2.4577885472413694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="336" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="368" t="n">
+        <v>5655.0</v>
+      </c>
+      <c r="C14" s="400" t="n">
+        <v>0.9000752345600572</v>
+      </c>
+      <c r="D14" s="432" t="n">
+        <v>6282.808128549472</v>
+      </c>
+      <c r="E14" s="464" t="n">
+        <v>627.8081285494718</v>
+      </c>
+      <c r="F14" s="496" t="n">
+        <v>1377.5602841920575</v>
+      </c>
+      <c r="G14" s="528" t="n">
+        <v>2.1942377321154813</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="337" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="369" t="n">
+        <v>6286.0</v>
+      </c>
+      <c r="C15" s="401" t="n">
+        <v>0.8987103958165106</v>
+      </c>
+      <c r="D15" s="433" t="n">
+        <v>6994.46677067638</v>
+      </c>
+      <c r="E15" s="465" t="n">
+        <v>708.4667706763803</v>
+      </c>
+      <c r="F15" s="497" t="n">
+        <v>1467.0404300142868</v>
+      </c>
+      <c r="G15" s="529" t="n">
+        <v>2.070725813454439</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="338" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="370" t="n">
+        <v>7246.0</v>
+      </c>
+      <c r="C16" s="402" t="n">
+        <v>0.8978842726234167</v>
+      </c>
+      <c r="D16" s="434" t="n">
+        <v>8070.082326788965</v>
+      </c>
+      <c r="E16" s="466" t="n">
+        <v>824.0823267889646</v>
+      </c>
+      <c r="F16" s="498" t="n">
+        <v>1597.5495332170058</v>
+      </c>
+      <c r="G16" s="530" t="n">
+        <v>1.9385800195981084</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="339" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="371" t="n">
+        <v>10614.0</v>
+      </c>
+      <c r="C17" s="403" t="n">
+        <v>0.8960102693740981</v>
+      </c>
+      <c r="D17" s="435" t="n">
+        <v>11845.846373406343</v>
+      </c>
+      <c r="E17" s="467" t="n">
+        <v>1231.8463734063425</v>
+      </c>
+      <c r="F17" s="499" t="n">
+        <v>2024.9695707985575</v>
+      </c>
+      <c r="G17" s="531" t="n">
+        <v>1.643849115047556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="340" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="372" t="n">
+        <v>10617.0</v>
+      </c>
+      <c r="C18" s="404" t="n">
+        <v>0.8945275306824443</v>
+      </c>
+      <c r="D18" s="436" t="n">
+        <v>11868.835374915941</v>
+      </c>
+      <c r="E18" s="468" t="n">
+        <v>1251.8353749159414</v>
+      </c>
+      <c r="F18" s="500" t="n">
+        <v>2027.7082973144659</v>
+      </c>
+      <c r="G18" s="532" t="n">
+        <v>1.6197883027955038</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="341" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="373" t="n">
+        <v>10014.0</v>
+      </c>
+      <c r="C19" s="405" t="n">
+        <v>0.892174239437999</v>
+      </c>
+      <c r="D19" s="437" t="n">
+        <v>11224.264899542546</v>
+      </c>
+      <c r="E19" s="469" t="n">
+        <v>1210.2648995425461</v>
+      </c>
+      <c r="F19" s="501" t="n">
+        <v>1957.5152193732347</v>
+      </c>
+      <c r="G19" s="533" t="n">
+        <v>1.6174270774217554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="342" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="374" t="n">
+        <v>7623.0</v>
+      </c>
+      <c r="C20" s="406" t="n">
+        <v>0.8892929828593693</v>
+      </c>
+      <c r="D20" s="438" t="n">
+        <v>8571.978129738018</v>
+      </c>
+      <c r="E20" s="470" t="n">
+        <v>948.9781297380177</v>
+      </c>
+      <c r="F20" s="502" t="n">
+        <v>1657.4663723930953</v>
+      </c>
+      <c r="G20" s="534" t="n">
+        <v>1.746580158649882</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="343" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="375" t="n">
+        <v>6470.0</v>
+      </c>
+      <c r="C21" s="407" t="n">
+        <v>0.8858048553345269</v>
+      </c>
+      <c r="D21" s="439" t="n">
+        <v>7304.091822297119</v>
+      </c>
+      <c r="E21" s="471" t="n">
+        <v>834.0918222971186</v>
+      </c>
+      <c r="F21" s="503" t="n">
+        <v>1506.2057268298092</v>
+      </c>
+      <c r="G21" s="535" t="n">
+        <v>1.8058032539890692</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="344" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="376" t="n">
+        <v>6591.0</v>
+      </c>
+      <c r="C22" s="408" t="n">
+        <v>0.8801080853393601</v>
+      </c>
+      <c r="D22" s="440" t="n">
+        <v>7488.852914535584</v>
+      </c>
+      <c r="E22" s="472" t="n">
+        <v>897.8529145355842</v>
+      </c>
+      <c r="F22" s="504" t="n">
+        <v>1529.0973104254665</v>
+      </c>
+      <c r="G22" s="536" t="n">
+        <v>1.7030599173544971</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="345" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="377" t="n">
+        <v>7039.0</v>
+      </c>
+      <c r="C23" s="409" t="n">
+        <v>0.8726586179592727</v>
+      </c>
+      <c r="D23" s="441" t="n">
+        <v>8066.155372946208</v>
+      </c>
+      <c r="E23" s="473" t="n">
+        <v>1027.1553729462084</v>
+      </c>
+      <c r="F23" s="505" t="n">
+        <v>1598.7386371618275</v>
+      </c>
+      <c r="G23" s="537" t="n">
+        <v>1.5564720579478997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="346" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="378" t="n">
+        <v>7189.0</v>
+      </c>
+      <c r="C24" s="410" t="n">
+        <v>0.8637455963467138</v>
+      </c>
+      <c r="D24" s="442" t="n">
+        <v>8323.052563632733</v>
+      </c>
+      <c r="E24" s="474" t="n">
+        <v>1134.052563632733</v>
+      </c>
+      <c r="F24" s="506" t="n">
+        <v>1629.5908852090379</v>
+      </c>
+      <c r="G24" s="538" t="n">
+        <v>1.436962392632787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="347" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="379" t="n">
+        <v>6858.0</v>
+      </c>
+      <c r="C25" s="411" t="n">
+        <v>0.8504960939188956</v>
+      </c>
+      <c r="D25" s="443" t="n">
+        <v>8063.529096765009</v>
+      </c>
+      <c r="E25" s="475" t="n">
+        <v>1205.529096765009</v>
+      </c>
+      <c r="F25" s="507" t="n">
+        <v>1599.3528403066769</v>
+      </c>
+      <c r="G25" s="539" t="n">
+        <v>1.3266812427825083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="348" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="380" t="n">
+        <v>6925.0</v>
+      </c>
+      <c r="C26" s="412" t="n">
+        <v>0.8351934517849662</v>
+      </c>
+      <c r="D26" s="444" t="n">
+        <v>8291.492210816508</v>
+      </c>
+      <c r="E26" s="476" t="n">
+        <v>1366.4922108165083</v>
+      </c>
+      <c r="F26" s="508" t="n">
+        <v>1627.289099605013</v>
+      </c>
+      <c r="G26" s="540" t="n">
+        <v>1.1908513540905388</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="349" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="381" t="n">
+        <v>6543.0</v>
+      </c>
+      <c r="C27" s="413" t="n">
+        <v>0.8149593892579192</v>
+      </c>
+      <c r="D27" s="445" t="n">
+        <v>8028.620918102293</v>
+      </c>
+      <c r="E27" s="477" t="n">
+        <v>1485.6209181022932</v>
+      </c>
+      <c r="F27" s="509" t="n">
+        <v>1597.146877763416</v>
+      </c>
+      <c r="G27" s="541" t="n">
+        <v>1.075070267456643</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="350" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="382" t="n">
+        <v>6454.0</v>
+      </c>
+      <c r="C28" s="414" t="n">
+        <v>0.7895171768792915</v>
+      </c>
+      <c r="D28" s="446" t="n">
+        <v>8174.616321218741</v>
+      </c>
+      <c r="E28" s="478" t="n">
+        <v>1720.6163212187412</v>
+      </c>
+      <c r="F28" s="510" t="n">
+        <v>1616.8708791943782</v>
+      </c>
+      <c r="G28" s="542" t="n">
+        <v>0.9397044880110875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="351" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="383" t="n">
+        <v>6309.0</v>
+      </c>
+      <c r="C29" s="415" t="n">
+        <v>0.7553119465198986</v>
+      </c>
+      <c r="D29" s="447" t="n">
+        <v>8352.840212668065</v>
+      </c>
+      <c r="E29" s="479" t="n">
+        <v>2043.8402126680649</v>
+      </c>
+      <c r="F29" s="511" t="n">
+        <v>1641.199754057741</v>
+      </c>
+      <c r="G29" s="543" t="n">
+        <v>0.8029980738637539</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="352" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="384" t="n">
+        <v>6282.0</v>
+      </c>
+      <c r="C30" s="416" t="n">
+        <v>0.7095250158763462</v>
+      </c>
+      <c r="D30" s="448" t="n">
+        <v>8853.810449855664</v>
+      </c>
+      <c r="E30" s="480" t="n">
+        <v>2571.810449855664</v>
+      </c>
+      <c r="F30" s="512" t="n">
+        <v>1703.214198589221</v>
+      </c>
+      <c r="G30" s="544" t="n">
+        <v>0.6622627257326874</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="353" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="385" t="n">
+        <v>6113.0</v>
+      </c>
+      <c r="C31" s="417" t="n">
+        <v>0.6451174325281124</v>
+      </c>
+      <c r="D31" s="449" t="n">
+        <v>9475.794160520709</v>
+      </c>
+      <c r="E31" s="481" t="n">
+        <v>3362.794160520709</v>
+      </c>
+      <c r="F31" s="513" t="n">
+        <v>1781.6041259859953</v>
+      </c>
+      <c r="G31" s="545" t="n">
+        <v>0.5297987450145103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="354" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="386" t="n">
+        <v>5392.0</v>
+      </c>
+      <c r="C32" s="418" t="n">
+        <v>0.5455597729100476</v>
+      </c>
+      <c r="D32" s="450" t="n">
+        <v>9883.426652296517</v>
+      </c>
+      <c r="E32" s="482" t="n">
+        <v>4491.426652296517</v>
+      </c>
+      <c r="F32" s="514" t="n">
+        <v>1842.1587213111247</v>
+      </c>
+      <c r="G32" s="546" t="n">
+        <v>0.41015001778314875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="355" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="387" t="n">
+        <v>3350.0</v>
+      </c>
+      <c r="C33" s="419" t="n">
+        <v>0.3724571568356312</v>
+      </c>
+      <c r="D33" s="451" t="n">
+        <v>8994.323074528505</v>
+      </c>
+      <c r="E33" s="483" t="n">
+        <v>5644.3230745285055</v>
+      </c>
+      <c r="F33" s="515" t="n">
+        <v>1758.5460318716227</v>
+      </c>
+      <c r="G33" s="547" t="n">
+        <v>0.31156013017885614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="548" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="549" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="550" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="551" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="552" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="553" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="554" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="555" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="587" t="n">
+        <v>2557.0</v>
+      </c>
+      <c r="C2" s="619" t="n">
+        <v>0.9756097560975611</v>
+      </c>
+      <c r="D2" s="651" t="n">
+        <v>2620.9249999999997</v>
+      </c>
+      <c r="E2" s="683" t="n">
+        <v>63.92499999999973</v>
+      </c>
+      <c r="F2" s="715" t="n">
+        <v>35.35155465975089</v>
+      </c>
+      <c r="G2" s="747" t="n">
+        <v>0.5530161073093631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="556" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="588" t="n">
+        <v>2885.0</v>
+      </c>
+      <c r="C3" s="620" t="n">
+        <v>0.9737020326793022</v>
+      </c>
+      <c r="D3" s="652" t="n">
+        <v>2962.9187402037614</v>
+      </c>
+      <c r="E3" s="684" t="n">
+        <v>77.91874020376144</v>
+      </c>
+      <c r="F3" s="716" t="n">
+        <v>37.79828954003086</v>
+      </c>
+      <c r="G3" s="748" t="n">
+        <v>0.48509882784534786</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="557" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="589" t="n">
+        <v>3108.0</v>
+      </c>
+      <c r="C4" s="621" t="n">
+        <v>0.9737020326793026</v>
+      </c>
+      <c r="D4" s="653" t="n">
+        <v>3191.9415752351083</v>
+      </c>
+      <c r="E4" s="685" t="n">
+        <v>83.9415752351083</v>
+      </c>
+      <c r="F4" s="717" t="n">
+        <v>39.733291931646825</v>
+      </c>
+      <c r="G4" s="749" t="n">
+        <v>0.4733446068930632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="558" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="590" t="n">
+        <v>3633.0</v>
+      </c>
+      <c r="C5" s="622" t="n">
+        <v>0.9741578323435177</v>
+      </c>
+      <c r="D5" s="654" t="n">
+        <v>3729.375137558709</v>
+      </c>
+      <c r="E5" s="686" t="n">
+        <v>96.37513755870896</v>
+      </c>
+      <c r="F5" s="718" t="n">
+        <v>43.23561095576998</v>
+      </c>
+      <c r="G5" s="750" t="n">
+        <v>0.4486178909932252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="559" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="591" t="n">
+        <v>4037.0</v>
+      </c>
+      <c r="C6" s="623" t="n">
+        <v>0.9735180964496786</v>
+      </c>
+      <c r="D6" s="655" t="n">
+        <v>4146.815569964779</v>
+      </c>
+      <c r="E6" s="687" t="n">
+        <v>109.81556996477866</v>
+      </c>
+      <c r="F6" s="719" t="n">
+        <v>45.811500850044595</v>
+      </c>
+      <c r="G6" s="751" t="n">
+        <v>0.4171676280944296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="560" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="592" t="n">
+        <v>4738.0</v>
+      </c>
+      <c r="C7" s="624" t="n">
+        <v>0.9727374083210102</v>
+      </c>
+      <c r="D7" s="656" t="n">
+        <v>4870.790368983555</v>
+      </c>
+      <c r="E7" s="688" t="n">
+        <v>132.7903689835548</v>
+      </c>
+      <c r="F7" s="720" t="n">
+        <v>50.15697508028235</v>
+      </c>
+      <c r="G7" s="752" t="n">
+        <v>0.37771545831380254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="561" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="593" t="n">
+        <v>3800.0</v>
+      </c>
+      <c r="C8" s="625" t="n">
+        <v>0.9718081597460001</v>
+      </c>
+      <c r="D8" s="657" t="n">
+        <v>3910.2367703860396</v>
+      </c>
+      <c r="E8" s="689" t="n">
+        <v>110.23677038603955</v>
+      </c>
+      <c r="F8" s="721" t="n">
+        <v>44.91444807778985</v>
+      </c>
+      <c r="G8" s="753" t="n">
+        <v>0.40743617506666213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="562" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="594" t="n">
+        <v>3078.0</v>
+      </c>
+      <c r="C9" s="626" t="n">
+        <v>0.9708251849930613</v>
+      </c>
+      <c r="D9" s="658" t="n">
+        <v>3170.49871344448</v>
+      </c>
+      <c r="E9" s="690" t="n">
+        <v>92.49871344448002</v>
+      </c>
+      <c r="F9" s="722" t="n">
+        <v>40.41531680963241</v>
+      </c>
+      <c r="G9" s="754" t="n">
+        <v>0.4369284209978841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="563" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="595" t="n">
+        <v>3193.0</v>
+      </c>
+      <c r="C10" s="627" t="n">
+        <v>0.9700210876451251</v>
+      </c>
+      <c r="D10" s="659" t="n">
+        <v>3291.6810166998503</v>
+      </c>
+      <c r="E10" s="691" t="n">
+        <v>98.68101669985026</v>
+      </c>
+      <c r="F10" s="723" t="n">
+        <v>41.78522532913289</v>
+      </c>
+      <c r="G10" s="755" t="n">
+        <v>0.42343732083980745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="564" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="596" t="n">
+        <v>3366.0</v>
+      </c>
+      <c r="C11" s="628" t="n">
+        <v>0.9038041919113748</v>
+      </c>
+      <c r="D11" s="660" t="n">
+        <v>3724.258008675028</v>
+      </c>
+      <c r="E11" s="692" t="n">
+        <v>358.2580086750281</v>
+      </c>
+      <c r="F11" s="724" t="n">
+        <v>1024.4062314779362</v>
+      </c>
+      <c r="G11" s="756" t="n">
+        <v>2.8594091595232523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="565" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="597" t="n">
+        <v>3797.0</v>
+      </c>
+      <c r="C12" s="629" t="n">
+        <v>0.9026250605455415</v>
+      </c>
+      <c r="D12" s="661" t="n">
+        <v>4206.619299607209</v>
+      </c>
+      <c r="E12" s="693" t="n">
+        <v>409.61929960720863</v>
+      </c>
+      <c r="F12" s="725" t="n">
+        <v>1096.0999185830262</v>
+      </c>
+      <c r="G12" s="757" t="n">
+        <v>2.675899108352796</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="566" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="598" t="n">
+        <v>4483.0</v>
+      </c>
+      <c r="C13" s="630" t="n">
+        <v>0.9014643189460602</v>
+      </c>
+      <c r="D13" s="662" t="n">
+        <v>4973.019903040937</v>
+      </c>
+      <c r="E13" s="694" t="n">
+        <v>490.0199030409367</v>
+      </c>
+      <c r="F13" s="726" t="n">
+        <v>1204.3653056143405</v>
+      </c>
+      <c r="G13" s="758" t="n">
+        <v>2.4577885472413694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="567" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="599" t="n">
+        <v>5655.0</v>
+      </c>
+      <c r="C14" s="631" t="n">
+        <v>0.9000752345600572</v>
+      </c>
+      <c r="D14" s="663" t="n">
+        <v>6282.808128549472</v>
+      </c>
+      <c r="E14" s="695" t="n">
+        <v>627.8081285494718</v>
+      </c>
+      <c r="F14" s="727" t="n">
+        <v>1377.5602841920575</v>
+      </c>
+      <c r="G14" s="759" t="n">
+        <v>2.1942377321154813</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="568" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="600" t="n">
+        <v>6286.0</v>
+      </c>
+      <c r="C15" s="632" t="n">
+        <v>0.8987103958165106</v>
+      </c>
+      <c r="D15" s="664" t="n">
+        <v>6994.46677067638</v>
+      </c>
+      <c r="E15" s="696" t="n">
+        <v>708.4667706763803</v>
+      </c>
+      <c r="F15" s="728" t="n">
+        <v>1467.0404300142868</v>
+      </c>
+      <c r="G15" s="760" t="n">
+        <v>2.070725813454439</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="569" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="601" t="n">
+        <v>7246.0</v>
+      </c>
+      <c r="C16" s="633" t="n">
+        <v>0.8978842726234167</v>
+      </c>
+      <c r="D16" s="665" t="n">
+        <v>8070.082326788965</v>
+      </c>
+      <c r="E16" s="697" t="n">
+        <v>824.0823267889646</v>
+      </c>
+      <c r="F16" s="729" t="n">
+        <v>1597.5495332170058</v>
+      </c>
+      <c r="G16" s="761" t="n">
+        <v>1.9385800195981084</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="570" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="602" t="n">
+        <v>10614.0</v>
+      </c>
+      <c r="C17" s="634" t="n">
+        <v>0.8960102693740981</v>
+      </c>
+      <c r="D17" s="666" t="n">
+        <v>11845.846373406343</v>
+      </c>
+      <c r="E17" s="698" t="n">
+        <v>1231.8463734063425</v>
+      </c>
+      <c r="F17" s="730" t="n">
+        <v>2024.9695707985575</v>
+      </c>
+      <c r="G17" s="762" t="n">
+        <v>1.643849115047556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="571" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="603" t="n">
+        <v>10617.0</v>
+      </c>
+      <c r="C18" s="635" t="n">
+        <v>0.8945275306824443</v>
+      </c>
+      <c r="D18" s="667" t="n">
+        <v>11868.835374915941</v>
+      </c>
+      <c r="E18" s="699" t="n">
+        <v>1251.8353749159414</v>
+      </c>
+      <c r="F18" s="731" t="n">
+        <v>2027.7082973144659</v>
+      </c>
+      <c r="G18" s="763" t="n">
+        <v>1.6197883027955038</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="572" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="604" t="n">
+        <v>10014.0</v>
+      </c>
+      <c r="C19" s="636" t="n">
+        <v>0.892174239437999</v>
+      </c>
+      <c r="D19" s="668" t="n">
+        <v>11224.264899542546</v>
+      </c>
+      <c r="E19" s="700" t="n">
+        <v>1210.2648995425461</v>
+      </c>
+      <c r="F19" s="732" t="n">
+        <v>1957.5152193732347</v>
+      </c>
+      <c r="G19" s="764" t="n">
+        <v>1.6174270774217554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="573" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="605" t="n">
+        <v>7623.0</v>
+      </c>
+      <c r="C20" s="637" t="n">
+        <v>0.8892929828593693</v>
+      </c>
+      <c r="D20" s="669" t="n">
+        <v>8571.978129738018</v>
+      </c>
+      <c r="E20" s="701" t="n">
+        <v>948.9781297380177</v>
+      </c>
+      <c r="F20" s="733" t="n">
+        <v>1657.4663723930953</v>
+      </c>
+      <c r="G20" s="765" t="n">
+        <v>1.746580158649882</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="574" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="606" t="n">
+        <v>6470.0</v>
+      </c>
+      <c r="C21" s="638" t="n">
+        <v>0.8858048553345269</v>
+      </c>
+      <c r="D21" s="670" t="n">
+        <v>7304.091822297119</v>
+      </c>
+      <c r="E21" s="702" t="n">
+        <v>834.0918222971186</v>
+      </c>
+      <c r="F21" s="734" t="n">
+        <v>1506.2057268298092</v>
+      </c>
+      <c r="G21" s="766" t="n">
+        <v>1.8058032539890692</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="575" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="607" t="n">
+        <v>6591.0</v>
+      </c>
+      <c r="C22" s="639" t="n">
+        <v>0.8801080853393601</v>
+      </c>
+      <c r="D22" s="671" t="n">
+        <v>7488.852914535584</v>
+      </c>
+      <c r="E22" s="703" t="n">
+        <v>897.8529145355842</v>
+      </c>
+      <c r="F22" s="735" t="n">
+        <v>1529.0973104254665</v>
+      </c>
+      <c r="G22" s="767" t="n">
+        <v>1.7030599173544971</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="576" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="608" t="n">
+        <v>7039.0</v>
+      </c>
+      <c r="C23" s="640" t="n">
+        <v>0.8726586179592727</v>
+      </c>
+      <c r="D23" s="672" t="n">
+        <v>8066.155372946208</v>
+      </c>
+      <c r="E23" s="704" t="n">
+        <v>1027.1553729462084</v>
+      </c>
+      <c r="F23" s="736" t="n">
+        <v>1598.7386371618275</v>
+      </c>
+      <c r="G23" s="768" t="n">
+        <v>1.5564720579478997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="577" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="609" t="n">
+        <v>7189.0</v>
+      </c>
+      <c r="C24" s="641" t="n">
+        <v>0.8637455963467138</v>
+      </c>
+      <c r="D24" s="673" t="n">
+        <v>8323.052563632733</v>
+      </c>
+      <c r="E24" s="705" t="n">
+        <v>1134.052563632733</v>
+      </c>
+      <c r="F24" s="737" t="n">
+        <v>1629.5908852090379</v>
+      </c>
+      <c r="G24" s="769" t="n">
+        <v>1.436962392632787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="578" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="610" t="n">
+        <v>6858.0</v>
+      </c>
+      <c r="C25" s="642" t="n">
+        <v>0.8504960939188956</v>
+      </c>
+      <c r="D25" s="674" t="n">
+        <v>8063.529096765009</v>
+      </c>
+      <c r="E25" s="706" t="n">
+        <v>1205.529096765009</v>
+      </c>
+      <c r="F25" s="738" t="n">
+        <v>1599.3528403066769</v>
+      </c>
+      <c r="G25" s="770" t="n">
+        <v>1.3266812427825083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="579" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="611" t="n">
+        <v>6925.0</v>
+      </c>
+      <c r="C26" s="643" t="n">
+        <v>0.8351934517849662</v>
+      </c>
+      <c r="D26" s="675" t="n">
+        <v>8291.492210816508</v>
+      </c>
+      <c r="E26" s="707" t="n">
+        <v>1366.4922108165083</v>
+      </c>
+      <c r="F26" s="739" t="n">
+        <v>1627.289099605013</v>
+      </c>
+      <c r="G26" s="771" t="n">
+        <v>1.1908513540905388</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="580" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="612" t="n">
+        <v>6543.0</v>
+      </c>
+      <c r="C27" s="644" t="n">
+        <v>0.8149593892579192</v>
+      </c>
+      <c r="D27" s="676" t="n">
+        <v>8028.620918102293</v>
+      </c>
+      <c r="E27" s="708" t="n">
+        <v>1485.6209181022932</v>
+      </c>
+      <c r="F27" s="740" t="n">
+        <v>1597.146877763416</v>
+      </c>
+      <c r="G27" s="772" t="n">
+        <v>1.075070267456643</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="581" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="613" t="n">
+        <v>6454.0</v>
+      </c>
+      <c r="C28" s="645" t="n">
+        <v>0.7895171768792915</v>
+      </c>
+      <c r="D28" s="677" t="n">
+        <v>8174.616321218741</v>
+      </c>
+      <c r="E28" s="709" t="n">
+        <v>1720.6163212187412</v>
+      </c>
+      <c r="F28" s="741" t="n">
+        <v>1616.8708791943782</v>
+      </c>
+      <c r="G28" s="773" t="n">
+        <v>0.9397044880110875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="582" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="614" t="n">
+        <v>6309.0</v>
+      </c>
+      <c r="C29" s="646" t="n">
+        <v>0.7553119465198986</v>
+      </c>
+      <c r="D29" s="678" t="n">
+        <v>8352.840212668065</v>
+      </c>
+      <c r="E29" s="710" t="n">
+        <v>2043.8402126680649</v>
+      </c>
+      <c r="F29" s="742" t="n">
+        <v>1641.199754057741</v>
+      </c>
+      <c r="G29" s="774" t="n">
+        <v>0.8029980738637539</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="583" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="615" t="n">
+        <v>6282.0</v>
+      </c>
+      <c r="C30" s="647" t="n">
+        <v>0.7095250158763462</v>
+      </c>
+      <c r="D30" s="679" t="n">
+        <v>8853.810449855664</v>
+      </c>
+      <c r="E30" s="711" t="n">
+        <v>2571.810449855664</v>
+      </c>
+      <c r="F30" s="743" t="n">
+        <v>1703.214198589221</v>
+      </c>
+      <c r="G30" s="775" t="n">
+        <v>0.6622627257326874</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="584" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="616" t="n">
+        <v>6113.0</v>
+      </c>
+      <c r="C31" s="648" t="n">
+        <v>0.6451174325281124</v>
+      </c>
+      <c r="D31" s="680" t="n">
+        <v>9475.794160520709</v>
+      </c>
+      <c r="E31" s="712" t="n">
+        <v>3362.794160520709</v>
+      </c>
+      <c r="F31" s="744" t="n">
+        <v>1781.6041259859953</v>
+      </c>
+      <c r="G31" s="776" t="n">
+        <v>0.5297987450145103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="585" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="617" t="n">
+        <v>5392.0</v>
+      </c>
+      <c r="C32" s="649" t="n">
+        <v>0.5455597729100476</v>
+      </c>
+      <c r="D32" s="681" t="n">
+        <v>9883.426652296517</v>
+      </c>
+      <c r="E32" s="713" t="n">
+        <v>4491.426652296517</v>
+      </c>
+      <c r="F32" s="745" t="n">
+        <v>1842.1587213111247</v>
+      </c>
+      <c r="G32" s="777" t="n">
+        <v>0.41015001778314875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="586" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="618" t="n">
+        <v>3350.0</v>
+      </c>
+      <c r="C33" s="650" t="n">
+        <v>0.3724571568356312</v>
+      </c>
+      <c r="D33" s="682" t="n">
+        <v>8994.323074528505</v>
+      </c>
+      <c r="E33" s="714" t="n">
+        <v>5644.3230745285055</v>
+      </c>
+      <c r="F33" s="746" t="n">
+        <v>1758.5460318716227</v>
+      </c>
+      <c r="G33" s="778" t="n">
+        <v>0.31156013017885614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -2309,14 +6017,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="14.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="38" width="8.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3097,21 +6805,883 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F
-&amp;A&amp;C&amp;P of &amp;N&amp;Rprinted on: &amp;D</oddFooter>
+    <oddFooter><![CDATA[&L&F
+&A&C&P of &N&Rprinted on: &D]]></oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="779" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="780" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="781" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="787" t="n">
+        <v>182245.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="782" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="788" t="n">
+        <v>0.8323286965372111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="783" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="789" t="n">
+        <v>218957.96787760078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="784" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="790" t="n">
+        <v>36712.96787760078</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="785" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="791" t="n">
+        <v>18023.295743972747</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="786" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="792" t="n">
+        <v>0.4909245094011883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="793">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="795">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="796">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="797">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="798">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="799">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="800">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n" s="833">
+        <v>2557.0</v>
+      </c>
+      <c r="C2" t="n" s="866">
+        <v>0.9756097560975611</v>
+      </c>
+      <c r="D2" t="n" s="898">
+        <v>2620.9249999999997</v>
+      </c>
+      <c r="E2" t="n" s="931">
+        <v>63.92499999999973</v>
+      </c>
+      <c r="F2" t="n" s="964">
+        <v>35.35155465975089</v>
+      </c>
+      <c r="G2" t="n" s="997">
+        <v>0.5530161073093631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="801">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n" s="834">
+        <v>2885.0</v>
+      </c>
+      <c r="C3" t="n" s="867">
+        <v>0.9737020326793022</v>
+      </c>
+      <c r="D3" t="n" s="899">
+        <v>2962.9187402037614</v>
+      </c>
+      <c r="E3" t="n" s="932">
+        <v>77.91874020376144</v>
+      </c>
+      <c r="F3" t="n" s="965">
+        <v>37.79828954003086</v>
+      </c>
+      <c r="G3" t="n" s="998">
+        <v>0.48509882784534786</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="802">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n" s="835">
+        <v>3108.0</v>
+      </c>
+      <c r="C4" t="n" s="868">
+        <v>0.9737020326793026</v>
+      </c>
+      <c r="D4" t="n" s="900">
+        <v>3191.9415752351083</v>
+      </c>
+      <c r="E4" t="n" s="933">
+        <v>83.9415752351083</v>
+      </c>
+      <c r="F4" t="n" s="966">
+        <v>39.733291931646825</v>
+      </c>
+      <c r="G4" t="n" s="999">
+        <v>0.4733446068930632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="803">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n" s="836">
+        <v>3633.0</v>
+      </c>
+      <c r="C5" t="n" s="869">
+        <v>0.9741578323435177</v>
+      </c>
+      <c r="D5" t="n" s="901">
+        <v>3729.375137558709</v>
+      </c>
+      <c r="E5" t="n" s="934">
+        <v>96.37513755870896</v>
+      </c>
+      <c r="F5" t="n" s="967">
+        <v>43.23561095576998</v>
+      </c>
+      <c r="G5" t="n" s="1000">
+        <v>0.4486178909932252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="804">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="837">
+        <v>4037.0</v>
+      </c>
+      <c r="C6" t="n" s="870">
+        <v>0.9735180964496786</v>
+      </c>
+      <c r="D6" t="n" s="902">
+        <v>4146.815569964779</v>
+      </c>
+      <c r="E6" t="n" s="935">
+        <v>109.81556996477866</v>
+      </c>
+      <c r="F6" t="n" s="968">
+        <v>45.811500850044595</v>
+      </c>
+      <c r="G6" t="n" s="1001">
+        <v>0.4171676280944296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="805">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n" s="838">
+        <v>4738.0</v>
+      </c>
+      <c r="C7" t="n" s="871">
+        <v>0.9727374083210102</v>
+      </c>
+      <c r="D7" t="n" s="903">
+        <v>4870.790368983555</v>
+      </c>
+      <c r="E7" t="n" s="936">
+        <v>132.7903689835548</v>
+      </c>
+      <c r="F7" t="n" s="969">
+        <v>50.15697508028235</v>
+      </c>
+      <c r="G7" t="n" s="1002">
+        <v>0.37771545831380254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="806">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n" s="839">
+        <v>3800.0</v>
+      </c>
+      <c r="C8" t="n" s="872">
+        <v>0.9718081597460001</v>
+      </c>
+      <c r="D8" t="n" s="904">
+        <v>3910.2367703860396</v>
+      </c>
+      <c r="E8" t="n" s="937">
+        <v>110.23677038603955</v>
+      </c>
+      <c r="F8" t="n" s="970">
+        <v>44.91444807778985</v>
+      </c>
+      <c r="G8" t="n" s="1003">
+        <v>0.40743617506666213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="807">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n" s="840">
+        <v>3078.0</v>
+      </c>
+      <c r="C9" t="n" s="873">
+        <v>0.9708251849930613</v>
+      </c>
+      <c r="D9" t="n" s="905">
+        <v>3170.49871344448</v>
+      </c>
+      <c r="E9" t="n" s="938">
+        <v>92.49871344448002</v>
+      </c>
+      <c r="F9" t="n" s="971">
+        <v>40.41531680963241</v>
+      </c>
+      <c r="G9" t="n" s="1004">
+        <v>0.4369284209978841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="808">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n" s="841">
+        <v>3193.0</v>
+      </c>
+      <c r="C10" t="n" s="874">
+        <v>0.9700210876451251</v>
+      </c>
+      <c r="D10" t="n" s="906">
+        <v>3291.6810166998503</v>
+      </c>
+      <c r="E10" t="n" s="939">
+        <v>98.68101669985026</v>
+      </c>
+      <c r="F10" t="n" s="972">
+        <v>41.78522532913289</v>
+      </c>
+      <c r="G10" t="n" s="1005">
+        <v>0.42343732083980745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="809">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n" s="842">
+        <v>3366.0</v>
+      </c>
+      <c r="C11" t="n" s="875">
+        <v>0.9038041919113748</v>
+      </c>
+      <c r="D11" t="n" s="907">
+        <v>3724.258008675028</v>
+      </c>
+      <c r="E11" t="n" s="940">
+        <v>358.2580086750281</v>
+      </c>
+      <c r="F11" t="n" s="973">
+        <v>1024.4062314779362</v>
+      </c>
+      <c r="G11" t="n" s="1006">
+        <v>2.8594091595232523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="810">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n" s="843">
+        <v>3797.0</v>
+      </c>
+      <c r="C12" t="n" s="876">
+        <v>0.9026250605455415</v>
+      </c>
+      <c r="D12" t="n" s="908">
+        <v>4206.619299607209</v>
+      </c>
+      <c r="E12" t="n" s="941">
+        <v>409.61929960720863</v>
+      </c>
+      <c r="F12" t="n" s="974">
+        <v>1096.0999185830262</v>
+      </c>
+      <c r="G12" t="n" s="1007">
+        <v>2.675899108352796</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="811">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n" s="844">
+        <v>4483.0</v>
+      </c>
+      <c r="C13" t="n" s="877">
+        <v>0.9014643189460602</v>
+      </c>
+      <c r="D13" t="n" s="909">
+        <v>4973.019903040937</v>
+      </c>
+      <c r="E13" t="n" s="942">
+        <v>490.0199030409367</v>
+      </c>
+      <c r="F13" t="n" s="975">
+        <v>1204.3653056143405</v>
+      </c>
+      <c r="G13" t="n" s="1008">
+        <v>2.4577885472413694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="812">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n" s="845">
+        <v>5655.0</v>
+      </c>
+      <c r="C14" t="n" s="878">
+        <v>0.9000752345600572</v>
+      </c>
+      <c r="D14" t="n" s="910">
+        <v>6282.808128549472</v>
+      </c>
+      <c r="E14" t="n" s="943">
+        <v>627.8081285494718</v>
+      </c>
+      <c r="F14" t="n" s="976">
+        <v>1377.5602841920575</v>
+      </c>
+      <c r="G14" t="n" s="1009">
+        <v>2.1942377321154813</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="813">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n" s="846">
+        <v>6286.0</v>
+      </c>
+      <c r="C15" t="n" s="879">
+        <v>0.8987103958165106</v>
+      </c>
+      <c r="D15" t="n" s="911">
+        <v>6994.46677067638</v>
+      </c>
+      <c r="E15" t="n" s="944">
+        <v>708.4667706763803</v>
+      </c>
+      <c r="F15" t="n" s="977">
+        <v>1467.0404300142868</v>
+      </c>
+      <c r="G15" t="n" s="1010">
+        <v>2.070725813454439</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="814">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n" s="847">
+        <v>7246.0</v>
+      </c>
+      <c r="C16" t="n" s="880">
+        <v>0.8978842726234167</v>
+      </c>
+      <c r="D16" t="n" s="912">
+        <v>8070.082326788965</v>
+      </c>
+      <c r="E16" t="n" s="945">
+        <v>824.0823267889646</v>
+      </c>
+      <c r="F16" t="n" s="978">
+        <v>1597.5495332170058</v>
+      </c>
+      <c r="G16" t="n" s="1011">
+        <v>1.9385800195981084</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="815">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n" s="848">
+        <v>10614.0</v>
+      </c>
+      <c r="C17" t="n" s="881">
+        <v>0.8960102693740981</v>
+      </c>
+      <c r="D17" t="n" s="913">
+        <v>11845.846373406343</v>
+      </c>
+      <c r="E17" t="n" s="946">
+        <v>1231.8463734063425</v>
+      </c>
+      <c r="F17" t="n" s="979">
+        <v>2024.9695707985575</v>
+      </c>
+      <c r="G17" t="n" s="1012">
+        <v>1.643849115047556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="816">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="849">
+        <v>10617.0</v>
+      </c>
+      <c r="C18" t="n" s="882">
+        <v>0.8945275306824443</v>
+      </c>
+      <c r="D18" t="n" s="914">
+        <v>11868.835374915941</v>
+      </c>
+      <c r="E18" t="n" s="947">
+        <v>1251.8353749159414</v>
+      </c>
+      <c r="F18" t="n" s="980">
+        <v>2027.7082973144659</v>
+      </c>
+      <c r="G18" t="n" s="1013">
+        <v>1.6197883027955038</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="817">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="850">
+        <v>10014.0</v>
+      </c>
+      <c r="C19" t="n" s="883">
+        <v>0.892174239437999</v>
+      </c>
+      <c r="D19" t="n" s="915">
+        <v>11224.264899542546</v>
+      </c>
+      <c r="E19" t="n" s="948">
+        <v>1210.2648995425461</v>
+      </c>
+      <c r="F19" t="n" s="981">
+        <v>1957.5152193732347</v>
+      </c>
+      <c r="G19" t="n" s="1014">
+        <v>1.6174270774217554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="818">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="851">
+        <v>7623.0</v>
+      </c>
+      <c r="C20" t="n" s="884">
+        <v>0.8892929828593693</v>
+      </c>
+      <c r="D20" t="n" s="916">
+        <v>8571.978129738018</v>
+      </c>
+      <c r="E20" t="n" s="949">
+        <v>948.9781297380177</v>
+      </c>
+      <c r="F20" t="n" s="982">
+        <v>1657.4663723930953</v>
+      </c>
+      <c r="G20" t="n" s="1015">
+        <v>1.746580158649882</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="819">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n" s="852">
+        <v>6470.0</v>
+      </c>
+      <c r="C21" t="n" s="885">
+        <v>0.8858048553345269</v>
+      </c>
+      <c r="D21" t="n" s="917">
+        <v>7304.091822297119</v>
+      </c>
+      <c r="E21" t="n" s="950">
+        <v>834.0918222971186</v>
+      </c>
+      <c r="F21" t="n" s="983">
+        <v>1506.2057268298092</v>
+      </c>
+      <c r="G21" t="n" s="1016">
+        <v>1.8058032539890692</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="820">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n" s="853">
+        <v>6591.0</v>
+      </c>
+      <c r="C22" t="n" s="886">
+        <v>0.8801080853393601</v>
+      </c>
+      <c r="D22" t="n" s="918">
+        <v>7488.852914535584</v>
+      </c>
+      <c r="E22" t="n" s="951">
+        <v>897.8529145355842</v>
+      </c>
+      <c r="F22" t="n" s="984">
+        <v>1529.0973104254665</v>
+      </c>
+      <c r="G22" t="n" s="1017">
+        <v>1.7030599173544971</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="821">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="854">
+        <v>7039.0</v>
+      </c>
+      <c r="C23" t="n" s="887">
+        <v>0.8726586179592727</v>
+      </c>
+      <c r="D23" t="n" s="919">
+        <v>8066.155372946208</v>
+      </c>
+      <c r="E23" t="n" s="952">
+        <v>1027.1553729462084</v>
+      </c>
+      <c r="F23" t="n" s="985">
+        <v>1598.7386371618275</v>
+      </c>
+      <c r="G23" t="n" s="1018">
+        <v>1.5564720579478997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="822">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="855">
+        <v>7189.0</v>
+      </c>
+      <c r="C24" t="n" s="888">
+        <v>0.8637455963467138</v>
+      </c>
+      <c r="D24" t="n" s="920">
+        <v>8323.052563632733</v>
+      </c>
+      <c r="E24" t="n" s="953">
+        <v>1134.052563632733</v>
+      </c>
+      <c r="F24" t="n" s="986">
+        <v>1629.5908852090379</v>
+      </c>
+      <c r="G24" t="n" s="1019">
+        <v>1.436962392632787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="823">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n" s="856">
+        <v>6858.0</v>
+      </c>
+      <c r="C25" t="n" s="889">
+        <v>0.8504960939188956</v>
+      </c>
+      <c r="D25" t="n" s="921">
+        <v>8063.529096765009</v>
+      </c>
+      <c r="E25" t="n" s="954">
+        <v>1205.529096765009</v>
+      </c>
+      <c r="F25" t="n" s="987">
+        <v>1599.3528403066769</v>
+      </c>
+      <c r="G25" t="n" s="1020">
+        <v>1.3266812427825083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="824">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n" s="857">
+        <v>6925.0</v>
+      </c>
+      <c r="C26" t="n" s="890">
+        <v>0.8351934517849662</v>
+      </c>
+      <c r="D26" t="n" s="922">
+        <v>8291.492210816508</v>
+      </c>
+      <c r="E26" t="n" s="955">
+        <v>1366.4922108165083</v>
+      </c>
+      <c r="F26" t="n" s="988">
+        <v>1627.289099605013</v>
+      </c>
+      <c r="G26" t="n" s="1021">
+        <v>1.1908513540905388</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="825">
+        <v>32</v>
+      </c>
+      <c r="B27" t="n" s="858">
+        <v>6543.0</v>
+      </c>
+      <c r="C27" t="n" s="891">
+        <v>0.8149593892579192</v>
+      </c>
+      <c r="D27" t="n" s="923">
+        <v>8028.620918102293</v>
+      </c>
+      <c r="E27" t="n" s="956">
+        <v>1485.6209181022932</v>
+      </c>
+      <c r="F27" t="n" s="989">
+        <v>1597.146877763416</v>
+      </c>
+      <c r="G27" t="n" s="1022">
+        <v>1.075070267456643</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="826">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n" s="859">
+        <v>6454.0</v>
+      </c>
+      <c r="C28" t="n" s="892">
+        <v>0.7895171768792915</v>
+      </c>
+      <c r="D28" t="n" s="924">
+        <v>8174.616321218741</v>
+      </c>
+      <c r="E28" t="n" s="957">
+        <v>1720.6163212187412</v>
+      </c>
+      <c r="F28" t="n" s="990">
+        <v>1616.8708791943782</v>
+      </c>
+      <c r="G28" t="n" s="1023">
+        <v>0.9397044880110875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="827">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n" s="860">
+        <v>6309.0</v>
+      </c>
+      <c r="C29" t="n" s="893">
+        <v>0.7553119465198986</v>
+      </c>
+      <c r="D29" t="n" s="925">
+        <v>8352.840212668065</v>
+      </c>
+      <c r="E29" t="n" s="958">
+        <v>2043.8402126680649</v>
+      </c>
+      <c r="F29" t="n" s="991">
+        <v>1641.199754057741</v>
+      </c>
+      <c r="G29" t="n" s="1024">
+        <v>0.8029980738637539</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="828">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n" s="861">
+        <v>6282.0</v>
+      </c>
+      <c r="C30" t="n" s="894">
+        <v>0.7095250158763462</v>
+      </c>
+      <c r="D30" t="n" s="926">
+        <v>8853.810449855664</v>
+      </c>
+      <c r="E30" t="n" s="959">
+        <v>2571.810449855664</v>
+      </c>
+      <c r="F30" t="n" s="992">
+        <v>1703.214198589221</v>
+      </c>
+      <c r="G30" t="n" s="1025">
+        <v>0.6622627257326874</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="829">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n" s="862">
+        <v>6113.0</v>
+      </c>
+      <c r="C31" t="n" s="895">
+        <v>0.6451174325281124</v>
+      </c>
+      <c r="D31" t="n" s="927">
+        <v>9475.794160520709</v>
+      </c>
+      <c r="E31" t="n" s="960">
+        <v>3362.794160520709</v>
+      </c>
+      <c r="F31" t="n" s="993">
+        <v>1781.6041259859953</v>
+      </c>
+      <c r="G31" t="n" s="1026">
+        <v>0.5297987450145103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="830">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n" s="863">
+        <v>5392.0</v>
+      </c>
+      <c r="C32" t="n" s="896">
+        <v>0.5455597729100476</v>
+      </c>
+      <c r="D32" t="n" s="928">
+        <v>9883.426652296517</v>
+      </c>
+      <c r="E32" t="n" s="961">
+        <v>4491.426652296517</v>
+      </c>
+      <c r="F32" t="n" s="994">
+        <v>1842.1587213111247</v>
+      </c>
+      <c r="G32" t="n" s="1027">
+        <v>0.41015001778314875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="831">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n" s="864">
+        <v>3350.0</v>
+      </c>
+      <c r="C33" t="n" s="897">
+        <v>0.3724571568356312</v>
+      </c>
+      <c r="D33" t="n" s="929">
+        <v>8994.323074528505</v>
+      </c>
+      <c r="E33" t="n" s="962">
+        <v>5644.3230745285055</v>
+      </c>
+      <c r="F33" t="n" s="995">
+        <v>1758.5460318716227</v>
+      </c>
+      <c r="G33" t="n" s="1028">
+        <v>0.31156013017885614</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="832">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n" s="865">
+        <v>182245.0</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="n" s="930">
+        <v>218957.96787760078</v>
+      </c>
+      <c r="E34" t="n" s="963">
+        <v>36712.96787760078</v>
+      </c>
+      <c r="F34" t="n" s="996">
+        <v>18023.295743972747</v>
+      </c>
+      <c r="G34" t="n" s="1029">
+        <v>0.4909245094011883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -3119,14 +7689,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="14.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="38" width="8.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3909,21 +8479,21 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F
-&amp;A&amp;C&amp;P of &amp;N&amp;Rprinted on: &amp;D</oddFooter>
+    <oddFooter><![CDATA[&L&F
+&A&C&P of &N&Rprinted on: &D]]></oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
@@ -3931,15 +8501,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="38" width="8.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4722,21 +9292,21 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F
-&amp;A&amp;C&amp;P of &amp;N&amp;Rprinted on: &amp;D</oddFooter>
+    <oddFooter><![CDATA[&L&F
+&A&C&P of &N&Rprinted on: &D]]></oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -4744,14 +9314,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="14.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="38" width="8.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -5534,21 +10104,21 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F
-&amp;A&amp;C&amp;P of &amp;N&amp;Rprinted on: &amp;D</oddFooter>
+    <oddFooter><![CDATA[&L&F
+&A&C&P of &N&Rprinted on: &D]]></oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -5556,14 +10126,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="14.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="38" width="8.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6346,27 +10916,27 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F
-&amp;A&amp;C&amp;P of &amp;N&amp;Rprinted on: &amp;D</oddFooter>
+    <oddFooter><![CDATA[&L&F
+&A&C&P of &N&Rprinted on: &D]]></oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A2:A33" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A2:A33"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -7146,13 +11716,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
@@ -7160,10 +11730,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="280" t="s">
         <v>0</v>
       </c>
@@ -7943,10 +12513,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A34" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A2:A34"/>
   </ignoredErrors>
 </worksheet>
 </file>